--- a/biology/Biologie cellulaire et moléculaire/Facteur_de_transcription_AP-1/Facteur_de_transcription_AP-1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Facteur_de_transcription_AP-1/Facteur_de_transcription_AP-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la biologie moléculaire, la protéine activatrice 1 (AP-1) est un facteur de transcription héterodimérique composé de protéines appartenant aux familles de c-Fos, c-Jun, ATF et JDP. 
 Il est impliqué dans la régulation de l'expression  de gènes impliqués dans la réponse à divers stimuli, comme les cytokines, facteurs de croissance, stress et infections virales ou bactériennes. AP-1 contrôle, de cette manière, divers processus cellulaires comprenant la différenciation, la prolifération et l'apoptose.
-AP-1 présente la capacité de déclencher la transcription des gènes qu'ils contiennent des éléments de réponse au 12-Ou-tetradecanoilforbol-13-acétate (TPA), caractérisés par la séquence 5'-TGAG/CTCA-3'[1]. AP-1 se lie à l'ADN par l'intermédiaire d'une région de sa séquence riche en acides aminés basiques, alors que la structure dimérique est formée par une glissière à leucine[2].
+AP-1 présente la capacité de déclencher la transcription des gènes qu'ils contiennent des éléments de réponse au 12-Ou-tetradecanoilforbol-13-acétate (TPA), caractérisés par la séquence 5'-TGAG/CTCA-3'. AP-1 se lie à l'ADN par l'intermédiaire d'une région de sa séquence riche en acides aminés basiques, alors que la structure dimérique est formée par une glissière à leucine.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
